--- a/QLSV.xlsx
+++ b/QLSV.xlsx
@@ -451,604 +451,604 @@
     <t xml:space="preserve">Wdgap42@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">AT170219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thị Quân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luAri80@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đoàn Minh Quang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eGglO50@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Quyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nXEwh90@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Thị Quỳnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVzvl69@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT17N0108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai Thị Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GxFUE97@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT17N0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hà Tấn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninh Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LgUDS89@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT17N0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cao Xuân Thanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUlCZ33@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Duy Thành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vjVSp75@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lâm Tăng Thọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dMfQX52@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Huy Đức Toàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pSjaP80@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT17N0103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Đình Trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZCMPD90@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Trung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKULw94@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Bảo Trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pgWFI94@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tô Xuân Tú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nXTaF50@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT17N0107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Hữu Tuấn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNcSh93@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Ngọc Tùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fxFqK83@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngô Quang Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lWAEp95@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Quốc Vũ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kFuVp11@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bùi Tuấn Trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prcuU19@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT17N0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Phi Yến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xMuDh26@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ HoàngAnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zUXFo39@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đoàn ChungAnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cwOjk96@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT17N0123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn HoàngAnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eMdwf22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Quốc Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaCbl17@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tuấn Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VYnmr61@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Xuân Tuấn Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zjQYl34@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quách Thị Lan Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCqtr59@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Đức Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hải Dương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnyeu39@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Thị Lan Ánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jwQIa26@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Nguyễn Hồng Ánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QygMr64@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Thị Phương Chương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cROKr53@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Văn Cường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gmruk11@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Lương Cường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUIAN87@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Cao Đạt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hLgAV28@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhâm Tiến Đạt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LhBZF29@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Thành Điệp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMrjf41@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT17N0105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Ngọc Đồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HmYbt54@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vi Minh Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KicbB54@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Dũng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZpIcN30@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đào AnhDương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inECb49@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Đăng Duyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehDSF72@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lương Thị Mỹ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vfvth58@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Thu Hà </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xscjN86@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hoàng Hiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erliU30@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Duy Hiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irTWC98@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Hoan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fjmKR23@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trương Thị Khánh Hòa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vdNpO90@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Hoàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hEItc26@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Huấn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vFZdV19@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trương Công Hùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hYbWt52@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Sỹ Hưng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">htNDQ86@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Khải Hưởng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHpOV27@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Huy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IaKTF78@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Ngọc Khá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CzKAo43@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai Văn Khánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iQNzL86@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT17N0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYtEb15@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Bình Linh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cTIuH45@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bùi Yến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UEGpM29@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Khánh Linh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QKpNi93@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zXoJA42@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Duy Thức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKXgh13@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Thức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kcrVS41@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dieBG14@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT170641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xmlSO65@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT17N0117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Thức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MuSDH28@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT17N0119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trương Công Thức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiAqd62@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">AT170212</t>
   </si>
   <si>
-    <t xml:space="preserve">Trần Thị Quân</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luAri80@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đoàn Minh Quang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eGglO50@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Quyên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nXEwh90@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đỗ Thị Quỳnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OVzvl69@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT17N0108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mai Thị Sơn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GxFUE97@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT17N0109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hà Tấn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninh Bình</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LgUDS89@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT17N0114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cao Xuân Thanh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUlCZ33@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Duy Thành</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vjVSp75@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lâm Tăng Thọ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dMfQX52@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Huy Đức Toàn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pSjaP80@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT17N0103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Đình Trang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZCMPD90@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Trung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKULw94@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoàng Bảo Trường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pgWFI94@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tô Xuân Tú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nXTaF50@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT17N0107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đỗ Hữu Tuấn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNcSh93@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Ngọc Tùng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fxFqK83@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngô Quang Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lWAEp95@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Quốc Vũ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kFuVp11@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bùi Tuấn Trường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prcuU19@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT17N0110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị Phi Yến</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xMuDh26@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đỗ HoàngAnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zUXFo39@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đoàn ChungAnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cwOjk96@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT17N0123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn HoàngAnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eMdwf22@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Quốc Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iaCbl17@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Tuấn Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VYnmr61@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Xuân Tuấn Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zjQYl34@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quách Thị Lan Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QCqtr59@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Đức Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hải Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dnyeu39@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vũ Thị Lan Ánh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jwQIa26@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Nguyễn Hồng Ánh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QygMr64@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vũ Thị Phương Chương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cROKr53@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phan Văn Cường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gmruk11@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Lương Cường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUIAN87@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phan Cao Đạt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hLgAV28@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhâm Tiến Đạt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LhBZF29@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vũ Thành Điệp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMrjf41@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT17N0105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặng Ngọc Đồng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HmYbt54@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vi Minh Đức</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KicbB54@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Dũng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZpIcN30@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đào AnhDương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inECb49@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Đăng Duyên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ehDSF72@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lương Thị Mỹ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vfvth58@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị Thu Hà </t>
-  </si>
-  <si>
-    <t xml:space="preserve">xscjN86@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hoàng Hiếu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erliU30@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Duy Hiếu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">irTWC98@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Hoan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fjmKR23@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trương Thị Khánh Hòa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vdNpO90@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Hoàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hEItc26@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Huấn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vFZdV19@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trương Công Hùng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hYbWt52@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Sỹ Hưng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">htNDQ86@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Khải Hưởng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHpOV27@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Huy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IaKTF78@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Ngọc Khá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CzKAo43@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mai Văn Khánh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iQNzL86@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT17N0121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thức</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYtEb15@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Bình Linh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cTIuH45@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bùi Yến</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UEGpM29@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị Khánh Linh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QKpNi93@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170654</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nguyễn Mạnh Đức</t>
   </si>
   <si>
-    <t xml:space="preserve">iQrzc89@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zXoJA42@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Duy Thức</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKXgh13@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Thức</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kcrVS41@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dieBG14@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT170641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xmlSO65@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT17N0117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Thức</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MuSDH28@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT17N0119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trương Công Thức</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uiAqd62@gmail.com</t>
+    <t xml:space="preserve">cH45@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1233,8 @@
   </sheetPr>
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D116" activeCellId="0" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3247,36 +3247,36 @@
         <v>322</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>36696</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" s="3" t="n">
-        <v>36504</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="C102" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>36696</v>
+        <v>36079</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>326</v>
@@ -3293,10 +3293,10 @@
         <v>8</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>36079</v>
+        <v>33418</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>329</v>
@@ -3307,56 +3307,56 @@
         <v>330</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="3" t="n">
+        <v>37470</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="3" t="n">
-        <v>33418</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="3" t="n">
+        <v>35519</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="3" t="n">
-        <v>37470</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="C106" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>35519</v>
+        <v>37627</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>336</v>
@@ -3370,13 +3370,13 @@
         <v>338</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>37627</v>
+        <v>36020</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>339</v>
@@ -3390,20 +3390,17 @@
         <v>341</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>36020</v>
+        <v>33942</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1"/>
